--- a/Data/EC/NIT-8000551164.xlsx
+++ b/Data/EC/NIT-8000551164.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{19AF94DB-D6DC-429F-9833-FC08674575EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7FDB5C24-E749-45E7-87E8-3E2EE9158764}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{1B6E4A93-21A2-45EF-BF21-51AE153FF901}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{417E922E-EECA-4DE0-9339-D82EA4F04F81}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="37">
   <si>
     <t>Tipo Doc Trabajador</t>
   </si>
@@ -65,40 +65,55 @@
     <t>CC</t>
   </si>
   <si>
+    <t>45706252</t>
+  </si>
+  <si>
+    <t>YANERIS MARGARITA MENDOZA GUERRA</t>
+  </si>
+  <si>
+    <t>2505</t>
+  </si>
+  <si>
+    <t>2504</t>
+  </si>
+  <si>
+    <t>2503</t>
+  </si>
+  <si>
+    <t>1044918760</t>
+  </si>
+  <si>
+    <t>JAIRO JOSE HERNANDEZ BELLO</t>
+  </si>
+  <si>
+    <t>2507</t>
+  </si>
+  <si>
     <t>1098623598</t>
   </si>
   <si>
     <t>SANDRA OMAIRA PARDO LONDOÃ?O</t>
   </si>
   <si>
+    <t>2506</t>
+  </si>
+  <si>
+    <t>2502</t>
+  </si>
+  <si>
+    <t>2501</t>
+  </si>
+  <si>
+    <t>2412</t>
+  </si>
+  <si>
+    <t>2411</t>
+  </si>
+  <si>
+    <t>2410</t>
+  </si>
+  <si>
     <t>2409</t>
-  </si>
-  <si>
-    <t>2410</t>
-  </si>
-  <si>
-    <t>2411</t>
-  </si>
-  <si>
-    <t>2412</t>
-  </si>
-  <si>
-    <t>2501</t>
-  </si>
-  <si>
-    <t>2502</t>
-  </si>
-  <si>
-    <t>2503</t>
-  </si>
-  <si>
-    <t>2504</t>
-  </si>
-  <si>
-    <t>2505</t>
-  </si>
-  <si>
-    <t>2506</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -512,7 +527,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{98136615-54A0-1469-418C-A3EA8F9D1B68}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B1F2843F-DEE8-206E-B0E5-521D8F3F525C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -863,8 +878,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C953961-5CD9-427B-B35A-DA41C0095B17}">
-  <dimension ref="B2:J31"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FB123B4-70F7-4B4C-99A0-C6E2B48CC6EF}">
+  <dimension ref="B2:J36"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2:J5"/>
@@ -875,7 +890,7 @@
     <col min="1" max="1" width="3.6328125" customWidth="1"/>
     <col min="2" max="2" width="18.54296875" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.7265625" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="33.6328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="37.90625" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.54296875" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.1796875" style="2" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14.36328125" style="2" bestFit="1" customWidth="1"/>
@@ -888,7 +903,7 @@
       <c r="B2" s="3"/>
       <c r="C2" s="28"/>
       <c r="D2" s="29" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="E2" s="29"/>
       <c r="F2" s="29"/>
@@ -933,7 +948,7 @@
     <row r="6" spans="2:10" ht="9" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="7" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B7" s="4" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="27"/>
@@ -965,12 +980,12 @@
     <row r="10" spans="2:10" ht="6.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="11" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B11" s="4" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="27"/>
       <c r="E11" s="7">
-        <v>2000000</v>
+        <v>2508940</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
@@ -981,17 +996,17 @@
     <row r="12" spans="2:10" ht="4.5" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="13" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B13" s="9" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C13" s="5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="8" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="F13" s="5">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
@@ -1018,13 +1033,13 @@
         <v>5</v>
       </c>
       <c r="H15" s="13" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="I15" s="13" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="J15" s="14" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.35">
@@ -1041,10 +1056,10 @@
         <v>11</v>
       </c>
       <c r="F16" s="18">
-        <v>200000</v>
+        <v>84000</v>
       </c>
       <c r="G16" s="18">
-        <v>5000000</v>
+        <v>908526</v>
       </c>
       <c r="H16" s="19"/>
       <c r="I16" s="19"/>
@@ -1064,10 +1079,10 @@
         <v>12</v>
       </c>
       <c r="F17" s="18">
-        <v>200000</v>
+        <v>84000</v>
       </c>
       <c r="G17" s="18">
-        <v>5000000</v>
+        <v>908526</v>
       </c>
       <c r="H17" s="19"/>
       <c r="I17" s="19"/>
@@ -1087,10 +1102,10 @@
         <v>13</v>
       </c>
       <c r="F18" s="18">
-        <v>200000</v>
+        <v>84000</v>
       </c>
       <c r="G18" s="18">
-        <v>5000000</v>
+        <v>908526</v>
       </c>
       <c r="H18" s="19"/>
       <c r="I18" s="19"/>
@@ -1101,19 +1116,19 @@
         <v>8</v>
       </c>
       <c r="C19" s="16" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D19" s="17" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E19" s="16" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F19" s="18">
-        <v>200000</v>
+        <v>56940</v>
       </c>
       <c r="G19" s="18">
-        <v>5000000</v>
+        <v>1423500</v>
       </c>
       <c r="H19" s="19"/>
       <c r="I19" s="19"/>
@@ -1124,13 +1139,13 @@
         <v>8</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D20" s="17" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="E20" s="16" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F20" s="18">
         <v>200000</v>
@@ -1147,13 +1162,13 @@
         <v>8</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D21" s="17" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="E21" s="16" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="F21" s="18">
         <v>200000</v>
@@ -1170,13 +1185,13 @@
         <v>8</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D22" s="17" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="E22" s="16" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="F22" s="18">
         <v>200000</v>
@@ -1193,13 +1208,13 @@
         <v>8</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D23" s="17" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="E23" s="16" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="F23" s="18">
         <v>200000</v>
@@ -1216,13 +1231,13 @@
         <v>8</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D24" s="17" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="E24" s="16" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="F24" s="18">
         <v>200000</v>
@@ -1235,56 +1250,171 @@
       <c r="J24" s="20"/>
     </row>
     <row r="25" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B25" s="21" t="s">
+      <c r="B25" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="C25" s="22" t="s">
-        <v>9</v>
-      </c>
-      <c r="D25" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="E25" s="22" t="s">
+      <c r="C25" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="D25" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="E25" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="F25" s="24">
+      <c r="F25" s="18">
         <v>200000</v>
       </c>
-      <c r="G25" s="24">
+      <c r="G25" s="18">
         <v>5000000</v>
       </c>
-      <c r="H25" s="25"/>
-      <c r="I25" s="25"/>
-      <c r="J25" s="26"/>
+      <c r="H25" s="19"/>
+      <c r="I25" s="19"/>
+      <c r="J25" s="20"/>
+    </row>
+    <row r="26" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B26" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C26" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="D26" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="E26" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="F26" s="18">
+        <v>200000</v>
+      </c>
+      <c r="G26" s="18">
+        <v>5000000</v>
+      </c>
+      <c r="H26" s="19"/>
+      <c r="I26" s="19"/>
+      <c r="J26" s="20"/>
+    </row>
+    <row r="27" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B27" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C27" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="D27" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="E27" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="F27" s="18">
+        <v>200000</v>
+      </c>
+      <c r="G27" s="18">
+        <v>5000000</v>
+      </c>
+      <c r="H27" s="19"/>
+      <c r="I27" s="19"/>
+      <c r="J27" s="20"/>
+    </row>
+    <row r="28" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B28" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C28" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="D28" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="E28" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="F28" s="18">
+        <v>200000</v>
+      </c>
+      <c r="G28" s="18">
+        <v>5000000</v>
+      </c>
+      <c r="H28" s="19"/>
+      <c r="I28" s="19"/>
+      <c r="J28" s="20"/>
+    </row>
+    <row r="29" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B29" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C29" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="D29" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="E29" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="F29" s="18">
+        <v>200000</v>
+      </c>
+      <c r="G29" s="18">
+        <v>5000000</v>
+      </c>
+      <c r="H29" s="19"/>
+      <c r="I29" s="19"/>
+      <c r="J29" s="20"/>
     </row>
     <row r="30" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B30" s="32" t="s">
-        <v>30</v>
-      </c>
-      <c r="C30" s="32"/>
-      <c r="H30" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="I30" s="1"/>
-      <c r="J30" s="1"/>
-    </row>
-    <row r="31" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B31" s="32" t="s">
-        <v>29</v>
-      </c>
-      <c r="C31" s="32"/>
-      <c r="H31" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="I31" s="1"/>
-      <c r="J31" s="1"/>
+      <c r="B30" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C30" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="D30" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="E30" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="F30" s="24">
+        <v>200000</v>
+      </c>
+      <c r="G30" s="24">
+        <v>5000000</v>
+      </c>
+      <c r="H30" s="25"/>
+      <c r="I30" s="25"/>
+      <c r="J30" s="26"/>
+    </row>
+    <row r="35" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B35" s="32" t="s">
+        <v>35</v>
+      </c>
+      <c r="C35" s="32"/>
+      <c r="H35" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="I35" s="1"/>
+      <c r="J35" s="1"/>
+    </row>
+    <row r="36" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B36" s="32" t="s">
+        <v>34</v>
+      </c>
+      <c r="C36" s="32"/>
+      <c r="H36" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="I36" s="1"/>
+      <c r="J36" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="H31:J31"/>
-    <mergeCell ref="H30:J30"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="H36:J36"/>
+    <mergeCell ref="H35:J35"/>
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="D2:J5"/>
